--- a/drafts/fenalår_2020.xlsx
+++ b/drafts/fenalår_2020.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\kjelliverb\kotelett\www\kladd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjelliverb/dev/kjelliverb/rettogslettkotelett.github.io/drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC198ED8-BB24-42CA-9DAD-57EB1757D41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F10D96-B63A-5541-A0EE-C8AED544993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -402,29 +413,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -434,8 +448,11 @@
       <c r="C2" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -445,11 +462,15 @@
       <c r="C4" s="1">
         <v>67.2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <f>D2*24</f>
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -460,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -471,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -481,11 +502,15 @@
       <c r="C9" s="1">
         <v>168</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1">
+        <f>60*D2</f>
+        <v>150</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -496,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -507,12 +532,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <f>D9/24</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -522,8 +553,12 @@
       <c r="C14" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <f>D2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -533,11 +568,15 @@
       <c r="C15" s="1">
         <v>1.96</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1">
+        <f>D14*0.7</f>
+        <v>1.75</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
